--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/10/seed2/result_data_KNN.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.302</v>
+        <v>-21.183</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.396</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.832</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.396</v>
+        <v>13.246</v>
       </c>
     </row>
     <row r="12">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.746</v>
+        <v>-20.88</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.498</v>
+        <v>13.535</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.472</v>
+        <v>-21.376</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.484</v>
+        <v>-22.27</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
